--- a/Packages/cn.etetet.wow/Luban/Base/__enums__.xlsx
+++ b/Packages/cn.etetet.wow/Luban/Base/__enums__.xlsx
@@ -1,21 +1,28 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10511"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tanghai/Documents/WOW/Packages/cn.etetet.wow/Luban/Base/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{45E9C319-9A1E-6F4E-9E32-24F94C4E1BB2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12360" activeTab="1"/>
+    <workbookView xWindow="4660" yWindow="1700" windowWidth="32980" windowHeight="16540" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="EClassType" sheetId="2" r:id="rId1"/>
     <sheet name="UnitType" sheetId="3" r:id="rId2"/>
+    <sheet name="CopyType" sheetId="4" r:id="rId3"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="63">
   <si>
     <t>##var</t>
   </si>
@@ -183,19 +190,41 @@
   </si>
   <si>
     <t>宠物</t>
+  </si>
+  <si>
+    <t>CopyType</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Normal</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Line</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Copy</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>普通地图</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>分线</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>副本</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="20">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -207,148 +236,19 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
+      <family val="4"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <sz val="9"/>
       <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
+      <family val="4"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="34">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -357,7 +257,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.79995117038483843"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -367,188 +267,8 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="10">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -571,255 +291,13 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="13" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="13" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="14" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -827,70 +305,29 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="49">
+  <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="差" xfId="7" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
-    <cellStyle name="超链接" xfId="10" builtinId="8"/>
-    <cellStyle name="百分比" xfId="11" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
-    <cellStyle name="注释" xfId="13" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
-    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
-    <cellStyle name="标题" xfId="17" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
-    <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="计算" xfId="25" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
-    <cellStyle name="汇总" xfId="30" builtinId="25"/>
-    <cellStyle name="好" xfId="31" builtinId="26"/>
-    <cellStyle name="适中" xfId="32" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1148,26 +585,26 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B35" sqref="B35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="7.75221238938053" defaultRowHeight="13.85"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="7.6640625" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="7.75221238938053" customWidth="1"/>
-    <col min="2" max="2" width="31.5044247787611" customWidth="1"/>
-    <col min="3" max="7" width="16.8761061946903" customWidth="1"/>
-    <col min="8" max="8" width="27.6283185840708" customWidth="1"/>
-    <col min="9" max="12" width="16.8761061946903" customWidth="1"/>
-    <col min="13" max="16384" width="7.75221238938053" customWidth="1"/>
+    <col min="1" max="1" width="7.6640625" customWidth="1"/>
+    <col min="2" max="2" width="31.5" customWidth="1"/>
+    <col min="3" max="7" width="16.83203125" customWidth="1"/>
+    <col min="8" max="8" width="27.6640625" customWidth="1"/>
+    <col min="9" max="12" width="16.83203125" customWidth="1"/>
+    <col min="13" max="13" width="7.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12">
@@ -1192,13 +629,13 @@
       <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="H1" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="2"/>
-      <c r="J1" s="2"/>
-      <c r="K1" s="2"/>
-      <c r="L1" s="2"/>
+      <c r="I1" s="4"/>
+      <c r="J1" s="4"/>
+      <c r="K1" s="4"/>
+      <c r="L1" s="4"/>
     </row>
     <row r="2" spans="1:12">
       <c r="A2" s="1" t="s">
@@ -1226,14 +663,14 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" ht="99" customHeight="1" spans="1:12">
+    <row r="3" spans="1:12" ht="99" customHeight="1">
       <c r="A3" s="1" t="s">
         <v>11</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="C3" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D3" s="1" t="s">
@@ -1256,15 +693,15 @@
       </c>
       <c r="L3" s="1"/>
     </row>
-    <row r="4" spans="1:2">
-      <c r="A4" s="4" t="s">
+    <row r="4" spans="1:12">
+      <c r="A4" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="4" t="s">
+      <c r="B4" s="3" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="5" spans="2:10">
+    <row r="5" spans="1:12">
       <c r="B5" t="s">
         <v>20</v>
       </c>
@@ -1278,7 +715,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="8:10">
+    <row r="6" spans="1:12">
       <c r="H6" t="s">
         <v>23</v>
       </c>
@@ -1289,7 +726,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="8:10">
+    <row r="7" spans="1:12">
       <c r="H7" t="s">
         <v>25</v>
       </c>
@@ -1300,7 +737,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="8:10">
+    <row r="8" spans="1:12">
       <c r="H8" t="s">
         <v>27</v>
       </c>
@@ -1311,7 +748,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="9" spans="8:10">
+    <row r="9" spans="1:12">
       <c r="H9" t="s">
         <v>29</v>
       </c>
@@ -1322,7 +759,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="10" spans="8:10">
+    <row r="10" spans="1:12">
       <c r="H10" t="s">
         <v>31</v>
       </c>
@@ -1333,7 +770,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="11" spans="8:10">
+    <row r="11" spans="1:12">
       <c r="H11" t="s">
         <v>33</v>
       </c>
@@ -1344,7 +781,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="12" spans="8:10">
+    <row r="12" spans="1:12">
       <c r="H12" t="s">
         <v>35</v>
       </c>
@@ -1355,7 +792,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="13" spans="8:10">
+    <row r="13" spans="1:12">
       <c r="H13" t="s">
         <v>37</v>
       </c>
@@ -1366,7 +803,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="14" spans="8:10">
+    <row r="14" spans="1:12">
       <c r="H14" t="s">
         <v>39</v>
       </c>
@@ -1377,7 +814,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="15" spans="8:10">
+    <row r="15" spans="1:12">
       <c r="H15" t="s">
         <v>41</v>
       </c>
@@ -1388,7 +825,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="16" spans="8:10">
+    <row r="16" spans="1:12">
       <c r="H16" t="s">
         <v>43</v>
       </c>
@@ -1414,28 +851,27 @@
   <mergeCells count="1">
     <mergeCell ref="H1:L1"/>
   </mergeCells>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:L7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="7.75221238938053" defaultRowHeight="13.85" outlineLevelRow="6"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="7.6640625" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="7.75221238938053" customWidth="1"/>
-    <col min="2" max="2" width="31.5044247787611" customWidth="1"/>
-    <col min="3" max="7" width="16.8761061946903" customWidth="1"/>
-    <col min="8" max="8" width="27.6283185840708" customWidth="1"/>
-    <col min="9" max="12" width="16.8761061946903" customWidth="1"/>
-    <col min="13" max="16384" width="7.75221238938053" customWidth="1"/>
+    <col min="1" max="1" width="7.6640625" customWidth="1"/>
+    <col min="2" max="2" width="31.5" customWidth="1"/>
+    <col min="3" max="7" width="16.83203125" customWidth="1"/>
+    <col min="8" max="8" width="27.6640625" customWidth="1"/>
+    <col min="9" max="12" width="16.83203125" customWidth="1"/>
+    <col min="13" max="13" width="7.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12">
@@ -1460,13 +896,13 @@
       <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="H1" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="2"/>
-      <c r="J1" s="2"/>
-      <c r="K1" s="2"/>
-      <c r="L1" s="2"/>
+      <c r="I1" s="4"/>
+      <c r="J1" s="4"/>
+      <c r="K1" s="4"/>
+      <c r="L1" s="4"/>
     </row>
     <row r="2" spans="1:12">
       <c r="A2" s="1" t="s">
@@ -1494,14 +930,14 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" ht="99" customHeight="1" spans="1:12">
+    <row r="3" spans="1:12" ht="99" customHeight="1">
       <c r="A3" s="1" t="s">
         <v>11</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="C3" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D3" s="1" t="s">
@@ -1524,7 +960,7 @@
       </c>
       <c r="L3" s="1"/>
     </row>
-    <row r="4" spans="2:10">
+    <row r="4" spans="1:12">
       <c r="B4" t="s">
         <v>47</v>
       </c>
@@ -1541,7 +977,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="8:10">
+    <row r="5" spans="1:12">
       <c r="H5" t="s">
         <v>50</v>
       </c>
@@ -1552,7 +988,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="8:10">
+    <row r="6" spans="1:12">
       <c r="H6" t="s">
         <v>52</v>
       </c>
@@ -1563,7 +999,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="8:10">
+    <row r="7" spans="1:12">
       <c r="H7" t="s">
         <v>54</v>
       </c>
@@ -1578,7 +1014,159 @@
   <mergeCells count="1">
     <mergeCell ref="H1:L1"/>
   </mergeCells>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{900945C2-FEC2-AB48-8B1A-241796E88020}">
+  <dimension ref="A1:L6"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K6" sqref="K6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="7.6640625" defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="7.6640625" customWidth="1"/>
+    <col min="2" max="2" width="31.5" customWidth="1"/>
+    <col min="3" max="7" width="16.83203125" customWidth="1"/>
+    <col min="8" max="8" width="27.6640625" customWidth="1"/>
+    <col min="9" max="12" width="16.83203125" customWidth="1"/>
+    <col min="13" max="13" width="7.6640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="4"/>
+      <c r="J1" s="4"/>
+      <c r="K1" s="4"/>
+      <c r="L1" s="4"/>
+    </row>
+    <row r="2" spans="1:12">
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="1"/>
+      <c r="C2" s="1"/>
+      <c r="D2" s="1"/>
+      <c r="E2" s="1"/>
+      <c r="F2" s="1"/>
+      <c r="G2" s="1"/>
+      <c r="H2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="L2" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" ht="99" customHeight="1">
+      <c r="A3" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E3" s="1"/>
+      <c r="F3" s="1"/>
+      <c r="G3" s="1"/>
+      <c r="H3" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="K3" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="L3" s="1"/>
+    </row>
+    <row r="4" spans="1:12">
+      <c r="B4" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="C4" t="b">
+        <v>0</v>
+      </c>
+      <c r="H4" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="I4" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="J4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12">
+      <c r="H5" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="I5" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="J5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12">
+      <c r="H6" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="I6" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="J6">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="H1:L1"/>
+  </mergeCells>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/Packages/cn.etetet.wow/Luban/Base/__enums__.xlsx
+++ b/Packages/cn.etetet.wow/Luban/Base/__enums__.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tanghai/Documents/WOW/Packages/cn.etetet.wow/Luban/Base/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{45E9C319-9A1E-6F4E-9E32-24F94C4E1BB2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8BE7A62B-BD30-1E4D-AD01-590ED501139B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4660" yWindow="1700" windowWidth="32980" windowHeight="16540" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4660" yWindow="1700" windowWidth="32980" windowHeight="16540" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="EClassType" sheetId="2" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="65">
   <si>
     <t>##var</t>
   </si>
@@ -217,6 +217,14 @@
   </si>
   <si>
     <t>副本</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>虚拟单位</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Virtual</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -310,11 +318,11 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -629,13 +637,13 @@
       <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="4" t="s">
+      <c r="H1" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="4"/>
-      <c r="J1" s="4"/>
-      <c r="K1" s="4"/>
-      <c r="L1" s="4"/>
+      <c r="I1" s="5"/>
+      <c r="J1" s="5"/>
+      <c r="K1" s="5"/>
+      <c r="L1" s="5"/>
     </row>
     <row r="2" spans="1:12">
       <c r="A2" s="1" t="s">
@@ -858,10 +866,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:L7"/>
+  <dimension ref="A1:L8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="7.6640625" defaultRowHeight="15"/>
@@ -896,13 +904,13 @@
       <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="4" t="s">
+      <c r="H1" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="4"/>
-      <c r="J1" s="4"/>
-      <c r="K1" s="4"/>
-      <c r="L1" s="4"/>
+      <c r="I1" s="5"/>
+      <c r="J1" s="5"/>
+      <c r="K1" s="5"/>
+      <c r="L1" s="5"/>
     </row>
     <row r="2" spans="1:12">
       <c r="A2" s="1" t="s">
@@ -1008,6 +1016,17 @@
       </c>
       <c r="J7">
         <v>8</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12">
+      <c r="H8" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="I8" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="J8">
+        <v>16</v>
       </c>
     </row>
   </sheetData>
@@ -1023,7 +1042,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{900945C2-FEC2-AB48-8B1A-241796E88020}">
   <dimension ref="A1:L6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="K6" sqref="K6"/>
     </sheetView>
   </sheetViews>
@@ -1059,13 +1078,13 @@
       <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="4" t="s">
+      <c r="H1" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="4"/>
-      <c r="J1" s="4"/>
-      <c r="K1" s="4"/>
-      <c r="L1" s="4"/>
+      <c r="I1" s="5"/>
+      <c r="J1" s="5"/>
+      <c r="K1" s="5"/>
+      <c r="L1" s="5"/>
     </row>
     <row r="2" spans="1:12">
       <c r="A2" s="1" t="s">
@@ -1124,16 +1143,16 @@
       <c r="L3" s="1"/>
     </row>
     <row r="4" spans="1:12">
-      <c r="B4" s="5" t="s">
+      <c r="B4" s="4" t="s">
         <v>56</v>
       </c>
       <c r="C4" t="b">
         <v>0</v>
       </c>
-      <c r="H4" s="5" t="s">
+      <c r="H4" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="I4" s="5" t="s">
+      <c r="I4" s="4" t="s">
         <v>60</v>
       </c>
       <c r="J4">
@@ -1141,10 +1160,10 @@
       </c>
     </row>
     <row r="5" spans="1:12">
-      <c r="H5" s="5" t="s">
+      <c r="H5" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="I5" s="5" t="s">
+      <c r="I5" s="4" t="s">
         <v>61</v>
       </c>
       <c r="J5">
@@ -1152,10 +1171,10 @@
       </c>
     </row>
     <row r="6" spans="1:12">
-      <c r="H6" s="5" t="s">
+      <c r="H6" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="I6" s="5" t="s">
+      <c r="I6" s="4" t="s">
         <v>62</v>
       </c>
       <c r="J6">
